--- a/Results/Correlation_results.xlsx
+++ b/Results/Correlation_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,16 @@
           <t>estimation</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>coef. t</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>crit. t</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -473,7 +483,13 @@
         <v>0.104</v>
       </c>
       <c r="E2" t="n">
-        <v>2.492</v>
+        <v>0.042</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.496</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.283</v>
       </c>
     </row>
     <row r="3">
@@ -494,7 +510,13 @@
         <v>0.185</v>
       </c>
       <c r="E3" t="n">
-        <v>4.481</v>
+        <v>0.041</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4.489</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.283</v>
       </c>
     </row>
     <row r="4">
@@ -515,7 +537,13 @@
         <v>0.094</v>
       </c>
       <c r="E4" t="n">
-        <v>2.258</v>
+        <v>0.042</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.262</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.283</v>
       </c>
     </row>
     <row r="5">
@@ -536,7 +564,13 @@
         <v>-0.051</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.213</v>
+        <v>0.042</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-1.215</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.283</v>
       </c>
     </row>
     <row r="6">
@@ -557,7 +591,13 @@
         <v>0.093</v>
       </c>
       <c r="E6" t="n">
-        <v>2.222</v>
+        <v>0.042</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.226</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.283</v>
       </c>
     </row>
     <row r="7">
@@ -578,7 +618,13 @@
         <v>0.103</v>
       </c>
       <c r="E7" t="n">
-        <v>2.461</v>
+        <v>0.042</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.465</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.283</v>
       </c>
     </row>
     <row r="8">
@@ -599,7 +645,13 @@
         <v>-0.174</v>
       </c>
       <c r="E8" t="n">
-        <v>-3.2</v>
+        <v>0.054</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-3.21</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.284</v>
       </c>
     </row>
     <row r="9">
@@ -620,7 +672,13 @@
         <v>-0.136</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.477</v>
+        <v>0.055</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-2.485</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.284</v>
       </c>
     </row>
     <row r="10">
@@ -641,7 +699,13 @@
         <v>-0.216</v>
       </c>
       <c r="E10" t="n">
-        <v>-4.007</v>
+        <v>0.054</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-4.019</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.284</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +726,13 @@
         <v>-0.08699999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.588</v>
+        <v>0.055</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-1.592</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.284</v>
       </c>
     </row>
     <row r="12">
@@ -683,7 +753,13 @@
         <v>0.01</v>
       </c>
       <c r="E12" t="n">
-        <v>0.178</v>
+        <v>0.055</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.179</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.284</v>
       </c>
     </row>
     <row r="13">
@@ -704,7 +780,13 @@
         <v>0.111</v>
       </c>
       <c r="E13" t="n">
-        <v>2.019</v>
+        <v>0.055</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2.025</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.284</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Correlation_results.xlsx
+++ b/Results/Correlation_results.xlsx
@@ -489,7 +489,7 @@
         <v>2.496</v>
       </c>
       <c r="G2" t="n">
-        <v>1.283</v>
+        <v>1.967</v>
       </c>
     </row>
     <row r="3">
@@ -516,7 +516,7 @@
         <v>4.489</v>
       </c>
       <c r="G3" t="n">
-        <v>1.283</v>
+        <v>1.967</v>
       </c>
     </row>
     <row r="4">
@@ -543,7 +543,7 @@
         <v>2.262</v>
       </c>
       <c r="G4" t="n">
-        <v>1.283</v>
+        <v>1.967</v>
       </c>
     </row>
     <row r="5">
@@ -567,10 +567,10 @@
         <v>0.042</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.215</v>
+        <v>1.215</v>
       </c>
       <c r="G5" t="n">
-        <v>1.283</v>
+        <v>1.967</v>
       </c>
     </row>
     <row r="6">
@@ -597,7 +597,7 @@
         <v>2.226</v>
       </c>
       <c r="G6" t="n">
-        <v>1.283</v>
+        <v>1.967</v>
       </c>
     </row>
     <row r="7">
@@ -624,7 +624,7 @@
         <v>2.465</v>
       </c>
       <c r="G7" t="n">
-        <v>1.283</v>
+        <v>1.967</v>
       </c>
     </row>
     <row r="8">
@@ -648,10 +648,10 @@
         <v>0.054</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.21</v>
+        <v>3.21</v>
       </c>
       <c r="G8" t="n">
-        <v>1.284</v>
+        <v>1.967</v>
       </c>
     </row>
     <row r="9">
@@ -675,10 +675,10 @@
         <v>0.055</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.485</v>
+        <v>2.485</v>
       </c>
       <c r="G9" t="n">
-        <v>1.284</v>
+        <v>1.967</v>
       </c>
     </row>
     <row r="10">
@@ -702,10 +702,10 @@
         <v>0.054</v>
       </c>
       <c r="F10" t="n">
-        <v>-4.019</v>
+        <v>4.019</v>
       </c>
       <c r="G10" t="n">
-        <v>1.284</v>
+        <v>1.967</v>
       </c>
     </row>
     <row r="11">
@@ -729,10 +729,10 @@
         <v>0.055</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.592</v>
+        <v>1.592</v>
       </c>
       <c r="G11" t="n">
-        <v>1.284</v>
+        <v>1.967</v>
       </c>
     </row>
     <row r="12">
@@ -759,7 +759,7 @@
         <v>0.179</v>
       </c>
       <c r="G12" t="n">
-        <v>1.284</v>
+        <v>1.967</v>
       </c>
     </row>
     <row r="13">
@@ -786,7 +786,7 @@
         <v>2.025</v>
       </c>
       <c r="G13" t="n">
-        <v>1.284</v>
+        <v>1.967</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Correlation_results.xlsx
+++ b/Results/Correlation_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>estimation</t>
+          <t>err</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -480,13 +480,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.104</v>
+        <v>0.165</v>
       </c>
       <c r="E2" t="n">
-        <v>0.042</v>
+        <v>0.041</v>
       </c>
       <c r="F2" t="n">
-        <v>2.496</v>
+        <v>3.977</v>
       </c>
       <c r="G2" t="n">
         <v>1.967</v>
@@ -507,13 +507,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.185</v>
+        <v>0.157</v>
       </c>
       <c r="E3" t="n">
         <v>0.041</v>
       </c>
       <c r="F3" t="n">
-        <v>4.489</v>
+        <v>3.782</v>
       </c>
       <c r="G3" t="n">
         <v>1.967</v>
@@ -534,13 +534,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.094</v>
+        <v>0.189</v>
       </c>
       <c r="E4" t="n">
-        <v>0.042</v>
+        <v>0.041</v>
       </c>
       <c r="F4" t="n">
-        <v>2.262</v>
+        <v>4.579</v>
       </c>
       <c r="G4" t="n">
         <v>1.967</v>
@@ -561,13 +561,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-0.051</v>
+        <v>-0.035</v>
       </c>
       <c r="E5" t="n">
         <v>0.042</v>
       </c>
       <c r="F5" t="n">
-        <v>1.215</v>
+        <v>0.841</v>
       </c>
       <c r="G5" t="n">
         <v>1.967</v>
@@ -588,13 +588,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.093</v>
+        <v>0.094</v>
       </c>
       <c r="E6" t="n">
         <v>0.042</v>
       </c>
       <c r="F6" t="n">
-        <v>2.226</v>
+        <v>2.258</v>
       </c>
       <c r="G6" t="n">
         <v>1.967</v>
@@ -615,13 +615,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.103</v>
+        <v>0.105</v>
       </c>
       <c r="E7" t="n">
         <v>0.042</v>
       </c>
       <c r="F7" t="n">
-        <v>2.465</v>
+        <v>2.516</v>
       </c>
       <c r="G7" t="n">
         <v>1.967</v>
@@ -642,13 +642,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-0.174</v>
+        <v>-0.274</v>
       </c>
       <c r="E8" t="n">
-        <v>0.054</v>
+        <v>0.053</v>
       </c>
       <c r="F8" t="n">
-        <v>3.21</v>
+        <v>5.184</v>
       </c>
       <c r="G8" t="n">
         <v>1.967</v>
@@ -669,13 +669,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-0.136</v>
+        <v>-0.233</v>
       </c>
       <c r="E9" t="n">
-        <v>0.055</v>
+        <v>0.054</v>
       </c>
       <c r="F9" t="n">
-        <v>2.485</v>
+        <v>4.349</v>
       </c>
       <c r="G9" t="n">
         <v>1.967</v>
@@ -696,13 +696,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>-0.216</v>
+        <v>-0.336</v>
       </c>
       <c r="E10" t="n">
-        <v>0.054</v>
+        <v>0.052</v>
       </c>
       <c r="F10" t="n">
-        <v>4.019</v>
+        <v>6.483</v>
       </c>
       <c r="G10" t="n">
         <v>1.967</v>
@@ -723,13 +723,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>-0.08699999999999999</v>
+        <v>-0.074</v>
       </c>
       <c r="E11" t="n">
         <v>0.055</v>
       </c>
       <c r="F11" t="n">
-        <v>1.592</v>
+        <v>1.353</v>
       </c>
       <c r="G11" t="n">
         <v>1.967</v>
@@ -750,13 +750,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.01</v>
+        <v>-0.021</v>
       </c>
       <c r="E12" t="n">
         <v>0.055</v>
       </c>
       <c r="F12" t="n">
-        <v>0.179</v>
+        <v>0.378</v>
       </c>
       <c r="G12" t="n">
         <v>1.967</v>
@@ -777,15 +777,96 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.111</v>
+        <v>-0.035</v>
       </c>
       <c r="E13" t="n">
         <v>0.055</v>
       </c>
       <c r="F13" t="n">
-        <v>2.025</v>
+        <v>0.629</v>
       </c>
       <c r="G13" t="n">
+        <v>1.967</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Количество</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Количество осадков, мм</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.321</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.967</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Количество</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Среднесуточная температура</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3.783</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.967</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Количество</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Температура на 1 м. раньше</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.169</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="F16" t="n">
+        <v>4.684</v>
+      </c>
+      <c r="G16" t="n">
         <v>1.967</v>
       </c>
     </row>
